--- a/src/test/resources/support/fixture/entries.xlsx
+++ b/src/test/resources/support/fixture/entries.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seongman.yang/Developer/IdeaProjects/jackson-dataformat-spreadsheet/src/test/resources/support/fixture/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\jackson-dataformat-excel-hyper\src\test\resources\support\fixture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE026B9-27EB-7947-AF27-E3F76E14085F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="34560" windowHeight="21585"/>
   </bookViews>
   <sheets>
-    <sheet name="Entries" sheetId="1" r:id="rId1"/>
+    <sheet name="Entry" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -33,21 +32,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="맑은 고딕"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -88,7 +87,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -399,14 +398,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,7 +413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -422,7 +421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
